--- a/wash_P/SUD.xlsx
+++ b/wash_P/SUD.xlsx
@@ -48820,7 +48820,7 @@
         <v>0</v>
       </c>
       <c r="AFG15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFH15" t="n">
         <v>0</v>
@@ -74812,7 +74812,7 @@
         <v>0</v>
       </c>
       <c r="DO24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP24" t="n">
         <v>0</v>
@@ -86134,7 +86134,7 @@
         <v>0</v>
       </c>
       <c r="ACK27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACL27" t="n">
         <v>0</v>
